--- a/Data/Export/Common/地形类型.xlsx
+++ b/Data/Export/Common/地形类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB86ED-1372-4FD9-A880-C641399E2467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969721B-BC20-4B27-944F-56C21C58D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TerrainTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="135">
   <si>
     <t>0</t>
   </si>
@@ -518,6 +518,14 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,31 +1010,31 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -1083,7 +1091,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1118,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1177,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1279,7 @@
       <c r="V5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -1324,7 +1332,7 @@
       <c r="V6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1376,7 +1384,7 @@
       <c r="V7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1428,7 +1436,7 @@
       <c r="V8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1480,7 +1488,7 @@
       <c r="V9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1532,7 +1540,7 @@
       <c r="V10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1584,7 +1592,7 @@
       <c r="V11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1636,7 +1644,7 @@
       <c r="V12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1688,7 +1696,7 @@
       <c r="V13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1740,7 +1748,7 @@
       <c r="V14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1792,7 +1800,7 @@
       <c r="V15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1844,7 +1852,7 @@
       <c r="V16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1896,7 +1904,7 @@
       <c r="V17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1948,7 +1956,7 @@
       <c r="V18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -2000,7 +2008,7 @@
       <c r="V19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -2052,7 +2060,7 @@
       <c r="V20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -2104,7 +2112,7 @@
       <c r="V21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -2156,12 +2164,12 @@
       <c r="V22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
-        <v>18</v>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>120</v>
@@ -2197,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" s="4"/>
       <c r="T23" s="4"/>
@@ -2208,12 +2216,12 @@
       <c r="V23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <v>19</v>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>120</v>
@@ -2249,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
@@ -2260,7 +2268,7 @@
       <c r="V24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -2312,7 +2320,7 @@
       <c r="V25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -2364,7 +2372,7 @@
       <c r="V26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>22</v>
       </c>
@@ -2416,7 +2424,7 @@
       <c r="V27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>23</v>
       </c>
@@ -2468,7 +2476,7 @@
       <c r="V28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>24</v>
       </c>
@@ -2520,7 +2528,7 @@
       <c r="V29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>25</v>
       </c>
@@ -2572,7 +2580,7 @@
       <c r="V30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>26</v>
       </c>
@@ -2624,7 +2632,7 @@
       <c r="V31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>27</v>
       </c>
@@ -2676,7 +2684,7 @@
       <c r="V32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>28</v>
       </c>
@@ -2728,7 +2736,7 @@
       <c r="V33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>29</v>
       </c>
@@ -2780,7 +2788,7 @@
       <c r="V34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>30</v>
       </c>
@@ -2832,7 +2840,7 @@
       <c r="V35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>31</v>
       </c>
@@ -2884,7 +2892,7 @@
       <c r="V36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="P37" s="4"/>
       <c r="R37" s="4"/>
@@ -2893,7 +2901,7 @@
       <c r="V37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J38" s="6"/>
       <c r="P38" s="4"/>
       <c r="R38" s="4"/>
@@ -2902,7 +2910,7 @@
       <c r="V38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J39" s="6"/>
       <c r="P39" s="4"/>
       <c r="R39" s="4"/>
@@ -2911,7 +2919,7 @@
       <c r="V39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J40" s="6"/>
       <c r="P40" s="4"/>
       <c r="R40" s="4"/>
@@ -2920,7 +2928,7 @@
       <c r="V40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J41" s="6"/>
       <c r="P41" s="4"/>
       <c r="R41" s="4"/>
@@ -2929,7 +2937,7 @@
       <c r="V41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J42" s="6"/>
       <c r="P42" s="4"/>
       <c r="R42" s="4"/>
@@ -2938,7 +2946,7 @@
       <c r="V42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J43" s="6"/>
       <c r="P43" s="4"/>
       <c r="R43" s="4"/>
@@ -2947,7 +2955,7 @@
       <c r="V43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J44" s="6"/>
       <c r="P44" s="4"/>
       <c r="R44" s="4"/>
@@ -2956,7 +2964,7 @@
       <c r="V44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J45" s="6"/>
       <c r="P45" s="4"/>
       <c r="R45" s="4"/>
@@ -2965,7 +2973,7 @@
       <c r="V45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J46" s="6"/>
       <c r="P46" s="4"/>
       <c r="R46" s="4"/>

--- a/Data/Export/Common/地形类型.xlsx
+++ b/Data/Export/Common/地形类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969721B-BC20-4B27-944F-56C21C58D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583A11C-3414-4A64-89A9-F30305B8BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TerrainTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="137">
   <si>
     <t>0</t>
   </si>
@@ -526,6 +526,14 @@
   </si>
   <si>
     <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +704,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,34 +1024,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -1070,28 +1087,31 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="7"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1127,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1117,8 +1137,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1156,18 +1177,20 @@
         <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -1176,8 +1199,9 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1217,17 +1241,20 @@
       <c r="M4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1265,21 +1292,24 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -1315,24 +1345,27 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1367,24 +1400,27 @@
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1419,24 +1455,27 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1471,24 +1510,27 @@
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1523,24 +1565,27 @@
         <v>2</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="S10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1575,180 +1620,192 @@
         <v>2</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="W11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2" t="s">
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="S12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="Y12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="16">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="S13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="Y13" s="18"/>
+    </row>
+    <row r="14" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="Y14" s="18"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1783,24 +1840,27 @@
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1835,24 +1895,27 @@
         <v>2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1887,24 +1950,27 @@
         <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1939,24 +2005,27 @@
         <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1991,24 +2060,27 @@
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -2046,21 +2118,24 @@
         <v>3</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -2098,21 +2173,24 @@
         <v>3</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -2147,24 +2225,27 @@
         <v>3</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>133</v>
       </c>
@@ -2199,24 +2280,27 @@
         <v>3</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>134</v>
       </c>
@@ -2251,24 +2335,27 @@
         <v>3</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -2303,24 +2390,27 @@
         <v>3</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="S25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -2358,21 +2448,24 @@
         <v>3</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>22</v>
       </c>
@@ -2410,21 +2503,24 @@
         <v>3</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>23</v>
       </c>
@@ -2462,21 +2558,24 @@
         <v>3</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>24</v>
       </c>
@@ -2514,21 +2613,24 @@
         <v>3</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="S29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>25</v>
       </c>
@@ -2566,21 +2668,24 @@
         <v>3</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>26</v>
       </c>
@@ -2618,21 +2723,24 @@
         <v>3</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="S31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>27</v>
       </c>
@@ -2670,21 +2778,24 @@
         <v>3</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>28</v>
       </c>
@@ -2722,21 +2833,24 @@
         <v>3</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>29</v>
       </c>
@@ -2774,21 +2888,24 @@
         <v>3</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="S34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>30</v>
       </c>
@@ -2826,21 +2943,24 @@
         <v>3</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>31</v>
       </c>
@@ -2878,108 +2998,111 @@
         <v>3</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="T36" s="4"/>
+      <c r="S36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="T37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J38" s="6"/>
-      <c r="P38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="T38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="S38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J39" s="6"/>
-      <c r="P39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="T39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="S39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J40" s="6"/>
-      <c r="P40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="T40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="S40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J41" s="6"/>
-      <c r="P41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="T41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="S41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W41" s="4"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J42" s="6"/>
-      <c r="P42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="T42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="S42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J43" s="6"/>
-      <c r="P43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="T43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="S43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W43" s="4"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J44" s="6"/>
-      <c r="P44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="T44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="S44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W44" s="4"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J45" s="6"/>
-      <c r="P45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="S45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="X45" s="4"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W45" s="4"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
       <c r="J46" s="6"/>
-      <c r="P46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="X46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="Y46" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
